--- a/52.xlsx
+++ b/52.xlsx
@@ -1244,7 +1244,7 @@
   </sheetPr>
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
       <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
@@ -2454,11 +2454,11 @@
         <v>9</v>
       </c>
       <c r="K42" s="12">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L42" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>NOK</v>
+        <v>ok</v>
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B53" s="14" t="str">
         <f>IF(SUM(O18:O51,P18:P33,P40:P47)&gt;0,"FAIL","PASS")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="18">
@@ -3069,7 +3069,7 @@
       <c r="B78" s="14"/>
       <c r="C78" s="23" t="str">
         <f>IF(AND(B53="PASS",B60="PASS",B75="PASS",M57="y",M58="y",M59="y"),"ACCEPTED","REJECTED")</f>
-        <v>REJECTED</v>
+        <v>ACCEPTED</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3083,7 +3083,7 @@
         <v>49</v>
       </c>
       <c r="F80" s="35">
-        <v>41936</v>
+        <v>41942</v>
       </c>
     </row>
   </sheetData>
